--- a/Log.xlsx
+++ b/Log.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thu Nov 16" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,199 +422,115 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>1700170113.758053</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0687.79</t>
+        </is>
       </c>
       <c r="B1" t="n">
-        <v>1710</v>
+        <v>2224</v>
       </c>
       <c r="C1" t="n">
-        <v>1076</v>
+        <v>1844</v>
       </c>
       <c r="D1" t="n">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1700170117.777808</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0689.12</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>1728</v>
+        <v>2222</v>
       </c>
       <c r="C2" t="n">
-        <v>1056</v>
+        <v>1844</v>
       </c>
       <c r="D2" t="n">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1700170119.01224</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0690.43</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>1906</v>
+        <v>2220</v>
       </c>
       <c r="C3" t="n">
-        <v>1390</v>
+        <v>1850</v>
       </c>
       <c r="D3" t="n">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1700170120.121772</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0691.67</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>1914</v>
+        <v>2224</v>
       </c>
       <c r="C4" t="n">
-        <v>1380</v>
+        <v>1846</v>
       </c>
       <c r="D4" t="n">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1700170121.183949</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0692.91</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>1926</v>
+        <v>2222</v>
       </c>
       <c r="C5" t="n">
-        <v>1368</v>
+        <v>1846</v>
       </c>
       <c r="D5" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1700170122.372236</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0694.15</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>1934</v>
+        <v>2220</v>
       </c>
       <c r="C6" t="n">
-        <v>1356</v>
+        <v>1850</v>
       </c>
       <c r="D6" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>1700170123.720777</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0695.33</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>1940</v>
+        <v>2224</v>
       </c>
       <c r="C7" t="n">
-        <v>1348</v>
+        <v>1846</v>
       </c>
       <c r="D7" t="n">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1700170124.861473</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1950</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1336</v>
-      </c>
-      <c r="D8" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1700170126.033428</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1960</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1326</v>
-      </c>
-      <c r="D9" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1700170127.142539</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1318</v>
-      </c>
-      <c r="D10" t="n">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1700170128.25212</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1308</v>
-      </c>
-      <c r="D11" t="n">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1700170129.345608</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1294</v>
-      </c>
-      <c r="D12" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1700170130.393137</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1810</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1604</v>
-      </c>
-      <c r="D13" t="n">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1700170131.346036</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1828</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1584</v>
-      </c>
-      <c r="D14" t="n">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,113 +424,239 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>0687.79</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>2224</v>
-      </c>
-      <c r="C1" t="n">
-        <v>1844</v>
-      </c>
-      <c r="D1" t="n">
-        <v>156</v>
+          <t>Time</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0689.12</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2222</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1844</v>
-      </c>
-      <c r="D2" t="n">
-        <v>156</v>
+          <t>target_x</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0690.43</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2220</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1850</v>
-      </c>
-      <c r="D3" t="n">
-        <v>151</v>
+          <t>target_y</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0691.67</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2224</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1846</v>
-      </c>
-      <c r="D4" t="n">
-        <v>154</v>
+          <t>target_radius</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0692.91</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2222</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1846</v>
-      </c>
-      <c r="D5" t="n">
-        <v>153</v>
+          <t>['1580.28', 2222, 1846, 154]</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0694.15</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2220</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1850</v>
-      </c>
-      <c r="D6" t="n">
-        <v>151</v>
+          <t>['1581.59', 2224, 1846, 154]</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0695.33</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2224</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1846</v>
-      </c>
-      <c r="D7" t="n">
-        <v>154</v>
+          <t>['1582.79', 2224, 1846, 154]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>['1584.04', 2222, 1846, 153]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>['1585.28', 2222, 1848, 153]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>['1586.44', 2222, 1846, 153]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>['1587.68', 2220, 1850, 151]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>['1588.84', 2224, 1846, 154]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>['1590.07', 2220, 1850, 151]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>['1591.24', 2222, 1844, 156]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>['1592.47', 2222, 1846, 153]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>['1593.64', 2220, 1848, 150]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>['1594.89', 2222, 1848, 152]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>['1596.06', 2222, 1844, 156]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>['1597.20', 2220, 1850, 151]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>['1598.44', 2236, 1850, 157]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>['1599.55', None, None, None]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>['1600.72', None, None, None]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>['1601.95', None, None, None]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>['1603.01', None, None, None]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>['1604.17', None, None, None]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>['1605.22', None, None, None]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>['1606.38', None, None, None]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>['1607.42', None, None, None]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>['1608.78', 2222, 1846, 153]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>['1609.94', 2224, 1846, 154]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>['1611.17', 2220, 1848, 150]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>['1612.23', 2222, 1842, 155]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>['1613.57', 2224, 1846, 154]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>['1614.63', 2220, 1848, 150]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,236 +427,84 @@
           <t>Time</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>target_x</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>target_y</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>target_radius</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>target_x</t>
-        </is>
+          <t>1829.84</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1076</v>
+      </c>
+      <c r="D2" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>target_y</t>
-        </is>
+          <t>1831.25</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1728</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D3" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>target_radius</t>
-        </is>
+          <t>1832.49</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1906</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1390</v>
+      </c>
+      <c r="D4" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>['1580.28', 2222, 1846, 154]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>['1581.59', 2224, 1846, 154]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>['1582.79', 2224, 1846, 154]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>['1584.04', 2222, 1846, 153]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>['1585.28', 2222, 1848, 153]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>['1586.44', 2222, 1846, 153]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>['1587.68', 2220, 1850, 151]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>['1588.84', 2224, 1846, 154]</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>['1590.07', 2220, 1850, 151]</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>['1591.24', 2222, 1844, 156]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>['1592.47', 2222, 1846, 153]</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>['1593.64', 2220, 1848, 150]</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>['1594.89', 2222, 1848, 152]</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>['1596.06', 2222, 1844, 156]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>['1597.20', 2220, 1850, 151]</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>['1598.44', 2236, 1850, 157]</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>['1599.55', None, None, None]</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>['1600.72', None, None, None]</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>['1601.95', None, None, None]</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>['1603.01', None, None, None]</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>['1604.17', None, None, None]</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>['1605.22', None, None, None]</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>['1606.38', None, None, None]</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>['1607.42', None, None, None]</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>['1608.78', 2222, 1846, 153]</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>['1609.94', 2224, 1846, 154]</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>['1611.17', 2220, 1848, 150]</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>['1612.23', 2222, 1842, 155]</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>['1613.57', 2224, 1846, 154]</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>['1614.63', 2220, 1848, 150]</t>
-        </is>
+          <t>1833.86</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1914</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1380</v>
+      </c>
+      <c r="D5" t="n">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,313 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1829.84</t>
+          <t>1930.94</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1710</v>
+        <v>2222</v>
       </c>
       <c r="C2" t="n">
-        <v>1076</v>
+        <v>1844</v>
       </c>
       <c r="D2" t="n">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1831.25</t>
+          <t>1932.49</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1728</v>
+        <v>2222</v>
       </c>
       <c r="C3" t="n">
-        <v>1056</v>
+        <v>1844</v>
       </c>
       <c r="D3" t="n">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1832.49</t>
+          <t>1933.85</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1906</v>
+        <v>2220</v>
       </c>
       <c r="C4" t="n">
-        <v>1390</v>
+        <v>1848</v>
       </c>
       <c r="D4" t="n">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1833.86</t>
+          <t>1935.10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1914</v>
+        <v>2224</v>
       </c>
       <c r="C5" t="n">
-        <v>1380</v>
+        <v>1844</v>
       </c>
       <c r="D5" t="n">
-        <v>142</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1936.35</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2220</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1848</v>
+      </c>
+      <c r="D6" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1937.60</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2222</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1846</v>
+      </c>
+      <c r="D7" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1938.85</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2222</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1846</v>
+      </c>
+      <c r="D8" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1940.09</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1941.34</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2220</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1848</v>
+      </c>
+      <c r="D10" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1942.50</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2222</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1844</v>
+      </c>
+      <c r="D11" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1943.73</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2220</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1850</v>
+      </c>
+      <c r="D12" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1944.91</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2224</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1846</v>
+      </c>
+      <c r="D13" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1946.11</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1947.16</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1948.31</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1949.39</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2224</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1846</v>
+      </c>
+      <c r="D17" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1950.55</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2224</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1846</v>
+      </c>
+      <c r="D18" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1951.80</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2224</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1846</v>
+      </c>
+      <c r="D19" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1953.05</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2220</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1848</v>
+      </c>
+      <c r="D20" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1954.33</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2222</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1844</v>
+      </c>
+      <c r="D21" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1955.48</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2224</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1846</v>
+      </c>
+      <c r="D22" t="n">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
